--- a/271025_Results_Med/output/m3/27102025_mod3_by_main_activity.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_main_activity.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6272,17 +6272,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>20 (55.6%)</t>
+          <t>20 (45.5%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>9 (47.4%)</t>
+          <t>9 (45.0%)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>72 (39.1%)</t>
+          <t>72 (36.0%)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6292,11 +6292,11 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>37 (63.8%)</t>
+          <t>37 (51.4%)</t>
         </is>
       </c>
       <c r="I132">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="133">
@@ -6317,17 +6317,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2 (5.6%)</t>
+          <t>2 (4.5%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1 (5.3%)</t>
+          <t>1 (5.0%)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>8 (4.0%)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6337,11 +6337,11 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="I133">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="134">
@@ -6357,22 +6357,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>5 (13.9%)</t>
+          <t>2 (4.5%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>9 (47.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>83 (45.1%)</t>
+          <t>4 (2.0%)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6382,11 +6382,11 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>9 (15.5%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="I134">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="135">
@@ -6402,22 +6402,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1 (2.8%)</t>
+          <t>5 (11.4%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (45.0%)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>83 (41.5%)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6427,11 +6427,11 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>9 (12.5%)</t>
         </is>
       </c>
       <c r="I135">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="136">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>8 (22.2%)</t>
+          <t>1 (2.3%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>19 (10.3%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6472,77 +6472,77 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>10 (17.2%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="I136">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (13.6%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.0%)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>12 (6.0%)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>4 (10.0%)</t>
+          <t>12 (16.7%)</t>
         </is>
       </c>
       <c r="I137">
-        <v>0.4163</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1 (6.7%)</t>
+          <t>8 (18.2%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6552,21 +6552,21 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>7 (7.8%)</t>
+          <t>19 (9.5%)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (13.9%)</t>
         </is>
       </c>
       <c r="I138">
-        <v>0.4163</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="139">
@@ -6582,36 +6582,36 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>11 (73.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>5 (83.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>68 (75.6%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>31 (77.5%)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="I139">
-        <v>0.4163</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="140">
@@ -6627,57 +6627,57 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>3 (20.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1 (16.7%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>13 (14.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>5 (12.5%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I140">
-        <v>0.4163</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1 (2.4%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6687,97 +6687,97 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>3 (3.0%)</t>
+          <t>9 (3.9%)</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I141">
-        <v>0.9856</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>41 (97.6%)</t>
+          <t>11 (20.0%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>9 (100.0%)</t>
+          <t>5 (19.2%)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>98 (97.0%)</t>
+          <t>68 (29.4%)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>44 (97.8%)</t>
+          <t>31 (36.9%)</t>
         </is>
       </c>
       <c r="I142">
-        <v>0.9856</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>16 (37.2%)</t>
+          <t>21 (38.2%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>8 (42.1%)</t>
+          <t>10 (38.5%)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>39 (21.3%)</t>
+          <t>100 (43.3%)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6787,222 +6787,222 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>19 (27.9%)</t>
+          <t>25 (29.8%)</t>
         </is>
       </c>
       <c r="I143">
-        <v>0.1967</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>19 (34.5%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>6 (3.3%)</t>
+          <t>36 (15.6%)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>16 (19.0%)</t>
         </is>
       </c>
       <c r="I144">
-        <v>0.1967</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1 (2.3%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>16 (8.7%)</t>
+          <t>13 (5.6%)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>6 (8.8%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I145">
-        <v>0.1967</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2 (4.7%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2 (10.5%)</t>
+          <t>8 (30.8%)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>7 (3.8%)</t>
+          <t>67 (29.0%)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>5 (7.4%)</t>
+          <t>18 (21.4%)</t>
         </is>
       </c>
       <c r="I146">
-        <v>0.1967</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>24 (55.8%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>9 (47.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>115 (62.8%)</t>
+          <t>7 (3.0%)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>37 (54.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I147">
-        <v>0.1967</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>4 (7.8%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>3 (12.0%)</t>
+          <t>3 (11.5%)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>19 (8.9%)</t>
+          <t>14 (6.1%)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7012,42 +7012,42 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>7 (8.6%)</t>
+          <t>7 (8.3%)</t>
         </is>
       </c>
       <c r="I148">
-        <v>0.4521</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7 (13.7%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>6 (24.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>23 (10.7%)</t>
+          <t>11 (4.8%)</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7057,132 +7057,132 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>9 (11.1%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I149">
-        <v>0.4521</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>8 (15.7%)</t>
+          <t>41 (74.5%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1 (4.0%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>28 (13.1%)</t>
+          <t>98 (42.4%)</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>14 (17.3%)</t>
+          <t>44 (52.4%)</t>
         </is>
       </c>
       <c r="I150">
-        <v>0.4521</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>11 (21.6%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>6 (24.0%)</t>
+          <t>5 (19.2%)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>39 (18.2%)</t>
+          <t>34 (14.7%)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>15 (18.5%)</t>
+          <t>12 (14.3%)</t>
         </is>
       </c>
       <c r="I151">
-        <v>0.4521</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>17 (33.3%)</t>
+          <t>16 (29.6%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>7 (28.0%)</t>
+          <t>8 (30.8%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>95 (44.4%)</t>
+          <t>39 (16.9%)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7192,42 +7192,42 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>34 (42.0%)</t>
+          <t>19 (22.6%)</t>
         </is>
       </c>
       <c r="I152">
-        <v>0.4521</v>
+        <v>0.2036</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4 (7.8%)</t>
+          <t>11 (20.4%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2 (8.0%)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>10 (4.7%)</t>
+          <t>54 (23.4%)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7237,452 +7237,885 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>17 (20.2%)</t>
         </is>
       </c>
       <c r="I153">
-        <v>0.4521</v>
+        <v>0.2036</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (6.9%)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4.0 (3.5–4.5)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (7.1%)</t>
         </is>
       </c>
       <c r="I154">
-        <v>0.9723000000000001</v>
+        <v>0.2036</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (3.0%)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4.0 (3.5–4.5)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I155">
-        <v>0.615</v>
+        <v>0.2036</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>24 (44.4%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>4.0 (4.0–5.0)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>115 (49.8%)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>37 (44.0%)</t>
         </is>
       </c>
       <c r="I156">
-        <v>0.0718</v>
+        <v>0.2036</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3 (11.5%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>19 (8.2%)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4.5 (4.2–4.8)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (8.3%)</t>
         </is>
       </c>
       <c r="I157">
-        <v>0.5818</v>
+        <v>0.5742</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (12.7%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (23.1%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>23 (10.0%)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3.5 (2.8–4.2)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (10.7%)</t>
         </is>
       </c>
       <c r="I158">
-        <v>0.7368</v>
+        <v>0.5742</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (14.5%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>28 (12.1%)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (16.7%)</t>
         </is>
       </c>
       <c r="I159">
-        <v>0.7474</v>
+        <v>0.5742</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>15 (27.3%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.8)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>56 (24.2%)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>2 (100.0%)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>18 (21.4%)</t>
         </is>
       </c>
       <c r="I160">
-        <v>0.08069999999999999</v>
+        <v>0.5742</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>17 (30.9%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>95 (41.1%)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4.0 (4.0–4.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>34 (40.5%)</t>
         </is>
       </c>
       <c r="I161">
-        <v>0.0568</v>
+        <v>0.5742</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>4.0 (3.5–5.0)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>3.5 (2.8–4.2)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I162">
-        <v>0.3629</v>
+        <v>0.5742</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>4.5 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>4.0 (3.5–4.5)</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I163">
+        <v>0.8801</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>3.0 (1.5–4.8)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>4.0 (3.5–4.5)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="I164">
-        <v>0.7604</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I165">
+        <v>0.0658</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>4.5 (4.2–4.8)</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I166">
+        <v>0.6358</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>3.5 (2.8–4.2)</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I167">
+        <v>0.6291</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I168">
+        <v>0.0844</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I169">
+        <v>0.1359</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>3.5 (2.2–4.8)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2.5 (1.8–3.2)</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I170">
+        <v>0.0267</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>3.5 (2.8–4.2)</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I171">
+        <v>0.7423999999999999</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>4.0 (3.5–4.5)</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I172">
+        <v>0.0192</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I173">
+        <v>0.7604</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>4.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>3.0 (2.0–4.0)</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="I165">
+      <c r="I174">
         <v>0.4119</v>
       </c>
     </row>

--- a/271025_Results_Med/output/m3/27102025_mod3_by_main_activity.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_main_activity.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,12 +432,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3 (8.8%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11 (9.3%)</t>
+          <t>11 (4.8%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I3">
@@ -512,17 +512,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31 (91.2%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14 (100.0%)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>104 (88.1%)</t>
+          <t>16 (6.9%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>47 (95.9%)</t>
+          <t>3 (3.6%)</t>
         </is>
       </c>
       <c r="I4">
@@ -542,32 +542,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>31 (56.4%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>14 (53.8%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>104 (45.0%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -577,56 +577,56 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>47 (56.0%)</t>
         </is>
       </c>
       <c r="I5">
-        <v>0.983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>19 (34.5%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (38.5%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>97 (42.0%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>32 (38.1%)</t>
         </is>
       </c>
       <c r="I6">
-        <v>0.983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -642,32 +642,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4 (15.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>27 (11.7%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11 (13.1%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I7">
@@ -687,12 +687,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
+          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I8">
@@ -732,7 +732,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -742,22 +742,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (15.4%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14 (6.1%)</t>
+          <t>27 (11.7%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (100.0%)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>11 (13.1%)</t>
         </is>
       </c>
       <c r="I9">
@@ -777,12 +777,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -822,22 +822,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>14 (6.1%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4 (4.8%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I11">
@@ -867,22 +867,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3 (11.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8 (3.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I12">
@@ -912,12 +912,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8 (3.5%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="I13">
@@ -957,22 +957,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>3 (11.5%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (3.5%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>3 (3.6%)</t>
         </is>
       </c>
       <c r="I14">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (3.5%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I15">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I16">
@@ -1092,22 +1092,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2 (7.7%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>19 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6 (7.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I17">
@@ -1137,22 +1137,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8 (3.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I18">
@@ -1182,22 +1182,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>19 (8.2%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (7.1%)</t>
         </is>
       </c>
       <c r="I19">
@@ -1227,22 +1227,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La comodidad (confort)</t>
+          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>8 (3.5%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La distancia que debe recorrer</t>
+          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1317,12 +1317,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La percepción de seguridad</t>
+          <t>El tiempo de viaje, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I22">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Otro</t>
+          <t>El tiempo de viaje, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
+          <t>El tiempo de viaje, La percepción de seguridad</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje, Otro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1462,12 +1462,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I25">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
+          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, Otro</t>
+          <t>La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1552,12 +1552,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I27">
@@ -1587,22 +1587,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>La comodidad (confort)</t>
+          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7 (12.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4 (15.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>33 (14.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>17 (20.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I28">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
+          <t>La autonomía o control sobre el viaje, Otro</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I29">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La comodidad (confort)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>7 (12.7%)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>4 (15.4%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6 (2.6%)</t>
+          <t>33 (14.3%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3 (3.6%)</t>
+          <t>17 (20.2%)</t>
         </is>
       </c>
       <c r="I30">
@@ -1722,22 +1722,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El tiempo de viaje</t>
+          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5 (6.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I31">
@@ -1767,22 +1767,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
+          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>6 (2.6%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.6%)</t>
         </is>
       </c>
       <c r="I32">
@@ -1812,22 +1812,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La distancia que debe recorrer</t>
+          <t>La comodidad (confort), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11 (4.8%)</t>
+          <t>13 (5.6%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3 (3.6%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I33">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La percepción de seguridad</t>
+          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I34">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Otro</t>
+          <t>La comodidad (confort), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>11 (4.8%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.6%)</t>
         </is>
       </c>
       <c r="I35">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
+          <t>La comodidad (confort), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I36">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>La comodidad (confort), Otro</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer</t>
+          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>12 (5.2%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I38">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
+          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I39">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>12 (5.2%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="I40">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El tiempo de viaje</t>
+          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I41">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, La comodidad (confort)</t>
+          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
+          <t>La distancia que debe recorrer, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I43">
@@ -2307,22 +2307,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>La percepción de seguridad</t>
+          <t>La distancia que debe recorrer, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I44">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
+          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La percepción de seguridad</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2442,12 +2442,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El tiempo de viaje</t>
+          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I47">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La comodidad (confort)</t>
+          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I48">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La distancia que debe recorrer</t>
+          <t>La percepción de seguridad, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I49">
@@ -2577,22 +2577,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>La percepción de seguridad, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="I50">
@@ -2622,12 +2622,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental)</t>
+          <t>La percepción de seguridad, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I51">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2677,12 +2677,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I52">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I53">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2792,17 +2792,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Costo económico</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2812,12 +2812,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2827,32 +2827,32 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I55">
-        <v>0.0019</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Falta de autonomía / control</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="I56">
-        <v>0.0019</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="57">
@@ -2892,22 +2892,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Impacto ambiental</t>
+          <t>Costo económico</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>3 (3.6%)</t>
         </is>
       </c>
       <c r="I57">
@@ -2937,22 +2937,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Incomodidad / clima</t>
+          <t>Falta de autonomía / control</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16 (29.1%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6 (23.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>83 (35.9%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17 (20.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I58">
@@ -2982,22 +2982,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Inseguridad personal</t>
+          <t>Impacto ambiental</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>5 (6.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I59">
@@ -3027,12 +3027,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nada le disgusta</t>
+          <t>Incomodidad / clima</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17 (30.9%)</t>
+          <t>16 (29.1%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>60 (26.0%)</t>
+          <t>83 (35.9%)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>25 (29.8%)</t>
+          <t>17 (20.2%)</t>
         </is>
       </c>
       <c r="I60">
@@ -3072,32 +3072,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Inseguridad personal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>7 (8.3%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I61">
@@ -3117,22 +3117,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Riesgo de accidente</t>
+          <t>Nada le disgusta</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>17 (30.9%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (23.1%)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>22 (9.5%)</t>
+          <t>60 (26.0%)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3 (3.6%)</t>
+          <t>25 (29.8%)</t>
         </is>
       </c>
       <c r="I62">
@@ -3162,32 +3162,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sin respuesta</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2 (7.7%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (8.3%)</t>
         </is>
       </c>
       <c r="I63">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tiempo de viaje / espera</t>
+          <t>Riesgo de accidente</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9 (16.4%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8 (30.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>37 (16.0%)</t>
+          <t>22 (9.5%)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>23 (27.4%)</t>
+          <t>3 (3.6%)</t>
         </is>
       </c>
       <c r="I64">
@@ -3242,32 +3242,32 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Congestión de tráfico</t>
+          <t>Sin respuesta</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11 (20.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6 (23.1%)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>36 (15.6%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3277,56 +3277,56 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10 (11.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I65">
-        <v>0.917</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Costos altos</t>
+          <t>Tiempo de viaje / espera</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (16.4%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>8 (30.8%)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>37 (16.0%)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>23 (27.4%)</t>
         </is>
       </c>
       <c r="I66">
-        <v>0.917</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="67">
@@ -3342,22 +3342,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
+          <t>Congestión de tráfico</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>11 (20.0%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (23.1%)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>36 (15.6%)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (11.9%)</t>
         </is>
       </c>
       <c r="I67">
@@ -3387,22 +3387,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
+          <t>Congestión de tráfico, Costos altos</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Multitud de personas</t>
+          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I70">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
+          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I71">
@@ -3567,22 +3567,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
+          <t>Congestión de tráfico, Multitud de personas</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I72">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
+          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I73">
@@ -3657,22 +3657,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3 (11.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>4 (4.8%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I74">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Costos altos, Congestión de tráfico</t>
+          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I75">
@@ -3747,22 +3747,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Costos altos, Dificultad para encontrar parqueadero</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (11.5%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="I76">
@@ -3792,12 +3792,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Costos altos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I77">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Costos altos, Multitud de personas</t>
+          <t>Costos altos, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Costos altos, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de espera largos o inciertos</t>
+          <t>Costos altos, Multitud de personas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
+          <t>Costos altos, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero</t>
+          <t>Costos altos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I82">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
+          <t>Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I84">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador</t>
+          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I85">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
+          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Multitud de personas</t>
+          <t>Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4287,32 +4287,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4 (15.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>22 (9.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>5 (6.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I88">
@@ -4332,12 +4332,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
+          <t>Esfuerzo físico agotador, Multitud de personas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4347,17 +4347,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>7 (3.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I89">
@@ -4377,32 +4377,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>4 (15.4%)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>22 (9.5%)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I90">
@@ -4422,12 +4422,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4437,17 +4437,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>7 (3.0%)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I91">
@@ -4467,22 +4467,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I92">
@@ -4512,12 +4512,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I93">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I94">
@@ -4602,12 +4602,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>17 (7.4%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>8 (9.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I97">
@@ -4737,12 +4737,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Multitud de personas, Congestión de tráfico</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I98">
@@ -4782,12 +4782,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Multitud de personas, Costos altos</t>
+          <t>Multitud de personas</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>17 (7.4%)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (9.5%)</t>
         </is>
       </c>
       <c r="I99">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Multitud de personas, Esfuerzo físico agotador</t>
+          <t>Multitud de personas, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I100">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de robo o atraco</t>
+          <t>Multitud de personas, Costos altos</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I101">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Multitud de personas, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I102">
@@ -4962,12 +4962,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I103">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I104">
@@ -5052,22 +5052,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Otro, Ninguno</t>
+          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>3 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I105">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Otro, No sabe</t>
+          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I106">
@@ -5142,22 +5142,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Otro, Por comodidad</t>
+          <t>Otro, Ninguno</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>3 (3.6%)</t>
         </is>
       </c>
       <c r="I107">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
+          <t>Otro, No sabe</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I108">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Otro, Todas</t>
+          <t>Otro, Por comodidad</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I109">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco</t>
+          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>3 (3.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I110">
@@ -5322,12 +5322,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
+          <t>Otro, Todas</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I111">
@@ -5367,22 +5367,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>3 (3.6%)</t>
         </is>
       </c>
       <c r="I112">
@@ -5412,12 +5412,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
+          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
+          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I118">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I119">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5772,22 +5772,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos</t>
+          <t>Ser víctima de situaciones de discriminación</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>15 (6.5%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>5 (6.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I121">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
+          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>11 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>5 (6.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I122">
@@ -5862,22 +5862,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Costos altos</t>
+          <t>Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>15 (6.5%)</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I123">
@@ -5907,22 +5907,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>11 (4.8%)</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I124">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de espera largos o inciertos, Costos altos</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5997,22 +5997,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I126">
@@ -6042,22 +6042,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>9 (10.7%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I127">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
+          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>7 (3.0%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6132,22 +6132,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (10.7%)</t>
         </is>
       </c>
       <c r="I129">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>7 (3.0%)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
+          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I131">
@@ -6257,77 +6257,77 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>20 (45.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>9 (45.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>72 (36.0%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>37 (51.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I132">
-        <v>0.01</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bicicleta</t>
+          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2 (4.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>8 (4.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6337,11 +6337,11 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I133">
-        <v>0.01</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="134">
@@ -6357,36 +6357,36 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Caminar</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2 (4.5%)</t>
+          <t>21 (38.2%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>4 (2.0%)</t>
+          <t>74 (32.0%)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>37 (44.0%)</t>
         </is>
       </c>
       <c r="I134">
-        <v>0.01</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="135">
@@ -6402,22 +6402,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Bicicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>5 (11.4%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>9 (45.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>83 (41.5%)</t>
+          <t>8 (3.5%)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6427,11 +6427,11 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>9 (12.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I135">
-        <v>0.01</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="136">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1 (2.3%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>4 (1.7%)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6472,11 +6472,11 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I136">
-        <v>0.01</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="137">
@@ -6492,22 +6492,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Taxi</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>6 (13.6%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>12 (6.0%)</t>
+          <t>83 (35.9%)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6517,11 +6517,11 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>12 (16.7%)</t>
+          <t>9 (10.7%)</t>
         </is>
       </c>
       <c r="I137">
-        <v>0.01</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="138">
@@ -6537,12 +6537,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>8 (18.2%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>19 (9.5%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6562,42 +6562,42 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>10 (13.9%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I138">
-        <v>0.01</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (10.9%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>12 (5.2%)</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6607,56 +6607,56 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>4 (4.8%)</t>
+          <t>12 (14.3%)</t>
         </is>
       </c>
       <c r="I139">
-        <v>0.0028</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Falta de infraestructura / distancia</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (32.7%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>6 (23.1%)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>47 (20.3%)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>22 (26.2%)</t>
         </is>
       </c>
       <c r="I140">
-        <v>0.0028</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="141">
@@ -6672,12 +6672,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>9 (3.9%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="I141">
@@ -6717,22 +6717,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>11 (20.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>5 (19.2%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>68 (29.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>31 (36.9%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I142">
@@ -6762,32 +6762,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Modo actual</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>21 (38.2%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>10 (38.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>100 (43.3%)</t>
+          <t>9 (3.9%)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>25 (29.8%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I143">
@@ -6807,32 +6807,32 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>19 (34.5%)</t>
+          <t>11 (20.0%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>9 (34.6%)</t>
+          <t>5 (19.2%)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>36 (15.6%)</t>
+          <t>68 (29.4%)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>16 (19.0%)</t>
+          <t>31 (36.9%)</t>
         </is>
       </c>
       <c r="I144">
@@ -6852,22 +6852,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>21 (38.2%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>10 (38.5%)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>13 (5.6%)</t>
+          <t>100 (43.3%)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>5 (6.0%)</t>
+          <t>25 (29.8%)</t>
         </is>
       </c>
       <c r="I145">
@@ -6887,32 +6887,32 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Industria/Obras</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>19 (34.5%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>8 (30.8%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>67 (29.0%)</t>
+          <t>36 (15.6%)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6922,42 +6922,42 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>18 (21.4%)</t>
+          <t>16 (19.0%)</t>
         </is>
       </c>
       <c r="I146">
-        <v>0.1034</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>7 (3.0%)</t>
+          <t>13 (5.6%)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I147">
-        <v>0.1034</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="148">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Productos químicos</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6997,22 +6997,22 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>3 (11.5%)</t>
+          <t>8 (30.8%)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>14 (6.1%)</t>
+          <t>67 (29.0%)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>7 (8.3%)</t>
+          <t>18 (21.4%)</t>
         </is>
       </c>
       <c r="I148">
@@ -7032,22 +7032,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Quema de residuos</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>11 (4.8%)</t>
+          <t>7 (3.0%)</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I149">
@@ -7077,32 +7077,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>41 (74.5%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>9 (34.6%)</t>
+          <t>3 (11.5%)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>98 (42.4%)</t>
+          <t>14 (6.1%)</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>44 (52.4%)</t>
+          <t>7 (8.3%)</t>
         </is>
       </c>
       <c r="I150">
@@ -7122,22 +7122,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vertederos (basureros) y rellenos sanitarios</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>5 (19.2%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>34 (14.7%)</t>
+          <t>11 (4.8%)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>12 (14.3%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I151">
@@ -7157,77 +7157,77 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>16 (29.6%)</t>
+          <t>41 (74.5%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>8 (30.8%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>39 (16.9%)</t>
+          <t>98 (42.4%)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>19 (22.6%)</t>
+          <t>44 (52.4%)</t>
         </is>
       </c>
       <c r="I152">
-        <v>0.2036</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>11 (20.4%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>7 (26.9%)</t>
+          <t>5 (19.2%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>54 (23.4%)</t>
+          <t>34 (14.7%)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7237,11 +7237,11 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>17 (20.2%)</t>
+          <t>12 (14.3%)</t>
         </is>
       </c>
       <c r="I153">
-        <v>0.2036</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="154">
@@ -7257,36 +7257,36 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>16 (29.1%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (30.8%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>16 (6.9%)</t>
+          <t>45 (19.5%)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>6 (7.1%)</t>
+          <t>20 (23.8%)</t>
         </is>
       </c>
       <c r="I154">
-        <v>0.2036</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="155">
@@ -7302,22 +7302,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>11 (20.0%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2 (7.7%)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>7 (3.0%)</t>
+          <t>48 (20.8%)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7327,11 +7327,11 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>5 (6.0%)</t>
+          <t>16 (19.0%)</t>
         </is>
       </c>
       <c r="I155">
-        <v>0.2036</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="156">
@@ -7347,22 +7347,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>24 (44.4%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>9 (34.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>115 (49.8%)</t>
+          <t>16 (6.9%)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -7372,42 +7372,42 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>37 (44.0%)</t>
+          <t>6 (7.1%)</t>
         </is>
       </c>
       <c r="I156">
-        <v>0.2036</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>3 (11.5%)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>19 (8.2%)</t>
+          <t>7 (3.0%)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7417,56 +7417,56 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>7 (8.3%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="I157">
-        <v>0.5742</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>7 (12.7%)</t>
+          <t>25 (45.5%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>6 (23.1%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>23 (10.0%)</t>
+          <t>115 (49.8%)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>9 (10.7%)</t>
+          <t>37 (44.0%)</t>
         </is>
       </c>
       <c r="I158">
-        <v>0.5742</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="159">
@@ -7482,22 +7482,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8 (14.5%)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>3 (11.5%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>28 (12.1%)</t>
+          <t>19 (8.2%)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>14 (16.7%)</t>
+          <t>7 (8.3%)</t>
         </is>
       </c>
       <c r="I159">
@@ -7527,32 +7527,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>15 (27.3%)</t>
+          <t>7 (12.7%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>7 (26.9%)</t>
+          <t>6 (23.1%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>56 (24.2%)</t>
+          <t>23 (10.0%)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>18 (21.4%)</t>
+          <t>9 (10.7%)</t>
         </is>
       </c>
       <c r="I160">
@@ -7572,22 +7572,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>17 (30.9%)</t>
+          <t>8 (14.5%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>7 (26.9%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>95 (41.1%)</t>
+          <t>28 (12.1%)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>34 (40.5%)</t>
+          <t>14 (16.7%)</t>
         </is>
       </c>
       <c r="I161">
@@ -7617,32 +7617,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>15 (27.3%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2 (7.7%)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>56 (24.2%)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (100.0%)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>18 (21.4%)</t>
         </is>
       </c>
       <c r="I162">
@@ -7652,92 +7652,102 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>17 (30.9%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>4.5 (4.0–5.0)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>95 (41.1%)</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4.0 (3.5–4.5)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>34 (40.5%)</t>
         </is>
       </c>
       <c r="I163">
-        <v>0.8801</v>
+        <v>0.5742</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>4.0 (1.0–5.0)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>3.0 (1.5–4.8)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>4.0 (3.5–4.5)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I164">
-        <v>0.2941</v>
+        <v>0.5742</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Importancia del costo de compra</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7747,97 +7757,97 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>4.0 (3.2–5.0)</t>
+          <t>4.5 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>4.0 (3.5–4.5)</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
           <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>5.0 (5.0–5.0)</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>5.0 (4.0–5.0)</t>
-        </is>
-      </c>
       <c r="I165">
-        <v>0.0658</v>
+        <v>0.8801</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3.0 (1.5–4.8)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>4.5 (4.2–4.8)</t>
+          <t>4.0 (3.5–4.5)</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="I166">
-        <v>0.6358</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Importancia de la comodidad</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
+          <t>4.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>5.0 (3.0–5.0)</t>
-        </is>
-      </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3.5 (2.8–4.2)</t>
+          <t>5.0 (5.0–5.0)</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7846,108 +7856,108 @@
         </is>
       </c>
       <c r="I167">
-        <v>0.6291</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Importancia del tiempo de viaje</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4.0 (2.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.5 (4.2–4.8)</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="I168">
-        <v>0.0844</v>
+        <v>0.6358</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p28_importancia_riesgo_robo</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Importancia del riesgo de robo o atraco</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2.0 (1.0–4.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>3.5 (2.8–4.2)</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>4.0 (2.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="I169">
-        <v>0.1359</v>
+        <v>0.6291</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p28_importancia_riesgo_acoso</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Importancia del riesgo de acoso</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>4.0 (1.5–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>3.5 (2.2–4.8)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -7957,166 +7967,256 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2.5 (1.8–3.2)</t>
+          <t>3.0 (2.0–4.0)</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="I170">
-        <v>0.0267</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p28_importancia_discriminacion</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Importancia del riesgo de discriminación</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2.0 (1.0–4.0)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>3.5 (2.8–4.2)</t>
+          <t>5.0 (5.0–5.0)</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>4.5 (3.0–5.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="I171">
-        <v>0.7423999999999999</v>
+        <v>0.1359</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
+          <t>Importancia del nivel de emisiones</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (1.5–5.0)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–3.0)</t>
+          <t>3.5 (2.2–4.8)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>4.0 (3.5–4.5)</t>
+          <t>2.5 (1.8–3.2)</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="I172">
-        <v>0.0192</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia de la siniestralidad vial</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>3.5 (2.8–4.2)</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.5 (3.0–5.0)</t>
         </is>
       </c>
       <c r="I173">
-        <v>0.7604</v>
+        <v>0.7423999999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>4.0 (3.5–4.5)</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I174">
+        <v>0.0192</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1.5 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I175">
+        <v>0.008200000000000001</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>4.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.8)</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>3.0 (2.0–4.0)</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>3.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>3.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="I174">
-        <v>0.4119</v>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I176">
+        <v>0.0243</v>
       </c>
     </row>
   </sheetData>
